--- a/items.xlsx
+++ b/items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanbe\Desktop\Пэт_проекты\Web_Flask_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D63B201-E0FB-4243-92D3-767134DFD9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE27492-85ED-41CE-84B0-11BF39B13E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{360B91F4-A242-49D9-A637-A580945770BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Item</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Coffee Gold Original</t>
   </si>
   <si>
-    <t>Tea Black</t>
-  </si>
-  <si>
     <t>Hot Chocolate</t>
   </si>
   <si>
@@ -129,6 +126,33 @@
   </si>
   <si>
     <t>Bath Robes</t>
+  </si>
+  <si>
+    <t>Cotton Pads</t>
+  </si>
+  <si>
+    <t>Nail File</t>
+  </si>
+  <si>
+    <t>Sanitary Bag</t>
+  </si>
+  <si>
+    <t>Tissue Box</t>
+  </si>
+  <si>
+    <t>Shoes Mitt</t>
+  </si>
+  <si>
+    <t>Tea Peppermint Leaves</t>
+  </si>
+  <si>
+    <t>Tea Berry Sensation</t>
+  </si>
+  <si>
+    <t>Tea English Breakfast</t>
+  </si>
+  <si>
+    <t>Shugar Artificial</t>
   </si>
 </sst>
 </file>
@@ -520,16 +544,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980FAC9F-B736-4710-ADB9-199C894A34D4}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -545,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -553,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -561,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -609,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -617,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -625,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -633,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -649,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -657,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -665,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -673,71 +695,71 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -745,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -753,12 +775,76 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B19:B28">
-    <sortCondition ref="B19:B28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B26">
+    <sortCondition ref="B2:B26"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/items.xlsx
+++ b/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanbe\Desktop\Пэт_проекты\Web_Flask_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE27492-85ED-41CE-84B0-11BF39B13E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38435F5D-756D-4CB7-BEA7-A58593823A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{360B91F4-A242-49D9-A637-A580945770BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>Item</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Shugar Artificial</t>
+  </si>
+  <si>
+    <t>Toilet Paper</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980FAC9F-B736-4710-ADB9-199C894A34D4}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -764,10 +767,10 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -775,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -783,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -791,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -799,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -807,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -815,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -823,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -831,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -839,12 +842,20 @@
         <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B26">
-    <sortCondition ref="B2:B26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B27">
+    <sortCondition ref="B2:B27"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
